--- a/水冷换扇三测.xlsx
+++ b/水冷换扇三测.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skycheng/Desktop/FanWebsite/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D0D934-89F9-6243-BA49-3E2B07F5CD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF351B0-9853-994F-BCA4-187B41DF63DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="28800" windowHeight="18040" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="38400" windowHeight="20980" xr2:uid="{0674E527-E1AB-E348-9FF3-CA6262F7D631}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>A120</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,10 +54,6 @@
   </si>
   <si>
     <t>9RA12038</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9RA12025垫高5mm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -425,27 +421,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F25302E3-D780-C043-8AFB-452B651797D6}">
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -455,48 +451,38 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:15">
       <c r="A2">
+        <v>48.2</v>
+      </c>
+      <c r="B2">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="C2">
+        <v>3006</v>
+      </c>
+      <c r="D2">
+        <v>59.9</v>
+      </c>
+      <c r="E2">
+        <v>77</v>
+      </c>
+      <c r="F2">
+        <v>4237</v>
+      </c>
+      <c r="G2">
         <v>52.2</v>
       </c>
-      <c r="B2">
+      <c r="H2">
         <v>78.5</v>
       </c>
-      <c r="C2">
+      <c r="I2">
         <v>3952</v>
-      </c>
-      <c r="D2">
-        <v>42.9</v>
-      </c>
-      <c r="E2">
-        <v>79.7</v>
-      </c>
-      <c r="F2">
-        <v>2546</v>
-      </c>
-      <c r="G2">
-        <v>48.2</v>
-      </c>
-      <c r="H2">
-        <v>79.099999999999994</v>
-      </c>
-      <c r="I2">
-        <v>3006</v>
       </c>
       <c r="J2">
         <v>48.7</v>
@@ -508,34 +494,16 @@
         <v>3222</v>
       </c>
       <c r="M2">
-        <v>59.6</v>
+        <v>42.9</v>
       </c>
       <c r="N2">
-        <v>77</v>
+        <v>79.7</v>
       </c>
       <c r="O2">
-        <v>4237</v>
-      </c>
-      <c r="P2">
-        <v>52.6</v>
-      </c>
-      <c r="Q2">
-        <v>78</v>
-      </c>
-      <c r="R2">
-        <v>4000</v>
-      </c>
-      <c r="S2">
-        <v>52</v>
-      </c>
-      <c r="T2">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="U2">
-        <v>3968</v>
+        <v>2546</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>45</v>
       </c>
@@ -543,25 +511,25 @@
         <v>79.7</v>
       </c>
       <c r="C3">
-        <v>2912</v>
+        <v>2538</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="E3">
-        <v>80.5</v>
+        <v>78.7</v>
       </c>
       <c r="F3">
-        <v>2086</v>
+        <v>2903</v>
       </c>
       <c r="G3">
         <v>45</v>
       </c>
       <c r="H3">
-        <v>79.7</v>
+        <v>79.599999999999994</v>
       </c>
       <c r="I3">
-        <v>2538</v>
+        <v>2912</v>
       </c>
       <c r="J3">
         <v>45</v>
@@ -573,51 +541,42 @@
         <v>2835</v>
       </c>
       <c r="M3">
-        <v>49.7</v>
+        <v>39</v>
       </c>
       <c r="N3">
-        <v>78.7</v>
+        <v>80.5</v>
       </c>
       <c r="O3">
-        <v>2903</v>
-      </c>
-      <c r="P3">
-        <v>45</v>
-      </c>
-      <c r="Q3">
-        <v>79.5</v>
-      </c>
-      <c r="R3">
-        <v>2906</v>
-      </c>
-      <c r="S3">
-        <v>45</v>
-      </c>
-      <c r="T3">
-        <v>79.5</v>
-      </c>
-      <c r="U3">
-        <v>2918</v>
+        <v>2086</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:15">
       <c r="A4">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="C4">
+        <v>1923</v>
+      </c>
+      <c r="D4">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F4">
+        <v>2461</v>
+      </c>
+      <c r="G4">
         <v>43.2</v>
       </c>
-      <c r="B4">
-        <v>80.099999999999994</v>
-      </c>
-      <c r="C4">
+      <c r="H4">
+        <v>80</v>
+      </c>
+      <c r="I4">
         <v>2709</v>
-      </c>
-      <c r="G4">
-        <v>39</v>
-      </c>
-      <c r="H4">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="I4">
-        <v>1923</v>
       </c>
       <c r="J4">
         <v>43</v>
@@ -628,33 +587,24 @@
       <c r="L4">
         <v>2599</v>
       </c>
-      <c r="M4">
-        <v>43.7</v>
-      </c>
-      <c r="N4">
-        <v>79.5</v>
-      </c>
-      <c r="O4">
-        <v>2461</v>
-      </c>
-      <c r="P4">
-        <v>40</v>
-      </c>
-      <c r="Q4">
-        <v>80.8</v>
-      </c>
-      <c r="R4">
-        <v>2285</v>
-      </c>
     </row>
-    <row r="5" spans="1:21">
-      <c r="A5">
+    <row r="5" spans="1:15">
+      <c r="D5">
         <v>39</v>
       </c>
-      <c r="B5">
-        <v>80.8</v>
-      </c>
-      <c r="C5">
+      <c r="E5">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="F5">
+        <v>1833</v>
+      </c>
+      <c r="G5">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>80.7</v>
+      </c>
+      <c r="I5">
         <v>2180</v>
       </c>
       <c r="J5">
@@ -666,25 +616,14 @@
       <c r="L5">
         <v>2080</v>
       </c>
-      <c r="M5">
-        <v>38.700000000000003</v>
-      </c>
-      <c r="N5">
-        <v>81.3</v>
-      </c>
-      <c r="O5">
-        <v>1833</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="S1:U1"/>
+  <mergeCells count="5">
+    <mergeCell ref="J1:L1"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="G1:I1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="P1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
